--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2032872.981560299</v>
+        <v>2137052.61601137</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283201</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>159.2282838500191</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>183.1642512458438</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>50.80543121045616</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>33.48579464521154</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>168.6014794811244</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>20.29515656310216</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>15.07397285531809</v>
+        <v>121.3780983812539</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>4.792004777350316</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>92.4209234259892</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>33.46221451996285</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>93.52232911225269</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>111.5361117049702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>126.9420388308264</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>82.73433514019987</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5078095423594</v>
       </c>
       <c r="E19" t="n">
-        <v>2.607010073152018</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>93.38904885909318</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,25 +2289,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>251.0718348128881</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>31.40247677522967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.733841663481</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722622</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569557</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.905700988129</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701353</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560491</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819377</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229316</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>52.91369288257662</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856593</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012208</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016761</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272887</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>245.8796921214088</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890376</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819377</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986282</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605708149</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856593</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012208</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.026286001645</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272887</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892445</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238284</v>
+        <v>43.34824157860942</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365914</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890376</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520952</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819377</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986282</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>99.97427419833056</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012208</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.026286001645</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272887</v>
+        <v>162.8435308896552</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892445</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238284</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365914</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890376</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560505</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141.234224340403</v>
+        <v>33.262726309339</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182128</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462243</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012208</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.026286001645</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272887</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892445</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238284</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365914</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890376</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520952</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>102.3739644559489</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634802</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710072</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695493</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576157</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881214</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784687</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560532</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819369</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986275</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D43" t="n">
-        <v>148.615473018212</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465688</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229309</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922685</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>42.20606459031539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012132</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272879</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892438</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238276</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3982,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417111</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695493</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576157</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881282</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784687</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560532</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819369</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.615473018212</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>18.70843787980323</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856516</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012132</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016442</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272879</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892438</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238276</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520944</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.632236038042</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1453.669719097631</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1095.40402049088</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339056</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X2" t="n">
-        <v>2599.371408077976</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>2209.232076102164</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.1078027362229</v>
+        <v>2322.222117337204</v>
       </c>
       <c r="C4" t="n">
-        <v>460.171619808316</v>
+        <v>2153.285934409297</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959802</v>
+        <v>2003.169294996962</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>1855.256201414568</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U4" t="n">
-        <v>1803.640055850858</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="V4" t="n">
-        <v>1548.955567644971</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="W4" t="n">
-        <v>1259.53839760801</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="X4" t="n">
-        <v>1031.548846709993</v>
+        <v>2594.333313865033</v>
       </c>
       <c r="Y4" t="n">
-        <v>810.7562675664626</v>
+        <v>2373.540734721503</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4565,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3045.010628407857</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2713.947741064286</v>
       </c>
       <c r="W5" t="n">
-        <v>2735.306770649777</v>
+        <v>2361.179085794172</v>
       </c>
       <c r="X5" t="n">
-        <v>2735.306770649777</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>526.6580321322147</v>
+        <v>748.947811098467</v>
       </c>
       <c r="C7" t="n">
-        <v>526.6580321322147</v>
+        <v>748.947811098467</v>
       </c>
       <c r="D7" t="n">
-        <v>376.5413927198789</v>
+        <v>748.947811098467</v>
       </c>
       <c r="E7" t="n">
-        <v>228.6282991374858</v>
+        <v>601.0347175160739</v>
       </c>
       <c r="F7" t="n">
-        <v>81.73835163957543</v>
+        <v>454.1447700181635</v>
       </c>
       <c r="G7" t="n">
-        <v>81.73835163957543</v>
+        <v>286.4419333928824</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1446.505797040963</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W7" t="n">
-        <v>1157.088627004002</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="X7" t="n">
-        <v>929.0990761059845</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="Y7" t="n">
-        <v>708.3064969624544</v>
+        <v>748.947811098467</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033361</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>939.4077790033361</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="9">
@@ -4857,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>725.2707086397594</v>
+        <v>847.3980557622425</v>
       </c>
       <c r="C10" t="n">
-        <v>556.3345257118525</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="D10" t="n">
-        <v>406.2178862995167</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E10" t="n">
-        <v>258.3047927171236</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X10" t="n">
-        <v>906.9191734699991</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="Y10" t="n">
-        <v>906.9191734699991</v>
+        <v>881.1982724490737</v>
       </c>
     </row>
     <row r="11">
@@ -5033,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,16 +5047,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
         <v>929.7309773356195</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1211.329899359456</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5269,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,16 +5366,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5598,22 +5600,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096659</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="D19" t="n">
-        <v>634.334587849125</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
         <v>631.7012443408906</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1024.063349920562</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1205.711814750802</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>2876.560776129205</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>3473.939263755757</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>4101.537227310363</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>4653.44695754965</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>815.9830526793647</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>665.866413267029</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>517.9533196846359</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>371.0633721867255</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305867</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328807</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3972.967823953647</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3972.967823953647</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953647</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912099</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400644</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121571</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121571</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121571</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121571</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270366</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000587</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797733</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854701</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648814</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611853</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138349</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703045</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6789,16 +6791,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400644</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121571</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998209</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998209</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998209</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>194.8007783998209</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797733</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510504</v>
+        <v>2032.574130447511</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854701</v>
+        <v>1743.498903791709</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648814</v>
+        <v>1488.814415585822</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611853</v>
+        <v>1199.397245548862</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138349</v>
+        <v>971.4076946508441</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703045</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,40 +6946,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7002,37 +7004,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.8412329032307</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032307</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908946</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908946</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908946</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057741</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038335</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797733</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487563</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510504</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854701</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648814</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611853</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138349</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703045</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7239,37 +7241,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756265</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913852</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913852</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.919755080347</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,64 +7399,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192377</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111693</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075785</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466579</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123008</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852894</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591815</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7476,28 +7478,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273898</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273898</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>917.5010142287022</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>748.5648313007956</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>598.4481918884603</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>450.5350983060675</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>303.6451508081576</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>136.4490515230379</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.741944003835</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797755</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832666</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855607</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199805</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993919</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956958</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058942</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1099.149479058942</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,64 +7630,64 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362682</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591808</v>
@@ -7713,19 +7715,19 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
         <v>280.8495004245706</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.853600740101</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998591</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998591</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998591</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>194.8007783998591</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000578</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.741944003835</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570843</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279828</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853387</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580286</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832689</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487594</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510536</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854734</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648847</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611887</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138701</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703404</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.29586847696709</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>125.1956044930016</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>134.6711151870884</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.10766347585297</v>
       </c>
       <c r="E19" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>73.85777223953465</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>35.11263957635606</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>220.7351665485983</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>112.6104454096922</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>40.30478226783572</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465696</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229316</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405161</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>208.7894017452186</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465696</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229316</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>40.32043864789372</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856593</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>54.56191943763307</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>38.59775584153465</v>
+        <v>146.5692538725983</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986282</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465696</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229316</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856593</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>149.7636788678792</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>98.08864825590811</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856516</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016442</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922685</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>121.5862749664203</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839524.1439825019</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839524.1439825025</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839524.1439825024</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839524.1439825025</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839524.1439825036</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516055</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516055</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516054</v>
-      </c>
-      <c r="C2" t="n">
-        <v>595255.2831516057</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.202397277</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551164</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26439,25 +26441,25 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414682981</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683031</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683031</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683102</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683091</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26500,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26527,43 @@
         <v>395137.4436720307</v>
       </c>
       <c r="D6" t="n">
-        <v>395137.4436720305</v>
+        <v>395137.4436720302</v>
       </c>
       <c r="E6" t="n">
-        <v>145649.4289971616</v>
+        <v>145649.4289971617</v>
       </c>
       <c r="F6" t="n">
-        <v>471061.8908045169</v>
+        <v>471061.8908045168</v>
       </c>
       <c r="G6" t="n">
-        <v>471061.8908045169</v>
+        <v>471061.8908045168</v>
       </c>
       <c r="H6" t="n">
-        <v>471061.8908045167</v>
+        <v>471061.8908045168</v>
       </c>
       <c r="I6" t="n">
-        <v>471061.8908045171</v>
+        <v>471061.890804517</v>
       </c>
       <c r="J6" t="n">
-        <v>253530.6884072399</v>
+        <v>253530.6884072393</v>
       </c>
       <c r="K6" t="n">
         <v>471061.8908045169</v>
       </c>
       <c r="L6" t="n">
+        <v>471061.8908045169</v>
+      </c>
+      <c r="M6" t="n">
+        <v>386006.8628690049</v>
+      </c>
+      <c r="N6" t="n">
         <v>471061.890804517</v>
       </c>
-      <c r="M6" t="n">
-        <v>386006.8628690052</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>471061.8908045169</v>
       </c>
-      <c r="O6" t="n">
-        <v>471061.8908045164</v>
-      </c>
       <c r="P6" t="n">
-        <v>471061.8908045167</v>
+        <v>471061.890804517</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>222.7020862222427</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>186.5668494326252</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>129.0265489714811</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27585,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>252.7260435604013</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>82.39369247777756</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>328.9458121543108</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>129.6810420590027</v>
+        <v>23.37691653306686</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>377.1383652949115</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>235.3313350441457</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>146.3697656619744</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>51.89871891067855</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29815,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="33">
@@ -30526,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31619,7 +31621,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31841,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32318,16 +32320,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>570.6116741576916</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>514.695376254093</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32716,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32789,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,7 +33034,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33043,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,25 +33265,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>333.9544784328825</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33664,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175652</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>556.532545233504</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33895,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33971,28 +33973,28 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>316.2462973459355</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,10 +34219,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>232.1537035940586</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34445,10 +34447,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35267,7 +35269,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35489,16 +35491,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>432.0572943778175</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>372.0991318096486</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,7 +36682,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096346</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191311</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010447</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.626132989907</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.261899706045</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066246</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.402257299898</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>191.358233988438</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096346</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191311</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010447</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.626132989907</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.261899706045</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066246</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.402257299898</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902925</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096346</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191311</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010447</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.626132989907</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.261899706045</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066246</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.402257299898</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>176.264523259914</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>90.01966967204032</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295373</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191318</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010455</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899078</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060458</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066253</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243133</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38172,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295373</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010455</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899318</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060458</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066253</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2137052.61601137</v>
+        <v>2133040.005997377</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>183.1642512458438</v>
+        <v>134.0513867710694</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.80543121045616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>134.6552054852412</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -870,13 +870,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>166.9920602376567</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>168.6014794811244</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>121.3780983812539</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222606</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>92.4209234259892</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.46221451996285</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8640357413583</v>
       </c>
       <c r="V13" t="n">
-        <v>126.9420388308264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757869</v>
       </c>
       <c r="T16" t="n">
-        <v>82.73433514019987</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>136.5078095423594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577715</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>251.0718348128881</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>52.91369288257662</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>74.53917159609161</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>43.34824157860942</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>162.8435308896552</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.262726309339</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.01539947950089</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>135.0949745400652</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740432</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4333,13 +4333,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2322.222117337204</v>
+        <v>760.6631235951729</v>
       </c>
       <c r="C4" t="n">
-        <v>2153.285934409297</v>
+        <v>760.6631235951729</v>
       </c>
       <c r="D4" t="n">
-        <v>2003.169294996962</v>
+        <v>760.6631235951729</v>
       </c>
       <c r="E4" t="n">
-        <v>1855.256201414568</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1708.366253916658</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763051</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>2822.322864763051</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>2822.322864763051</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W4" t="n">
-        <v>2822.322864763051</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X4" t="n">
-        <v>2594.333313865033</v>
+        <v>1163.104167568943</v>
       </c>
       <c r="Y4" t="n">
-        <v>2373.540734721503</v>
+        <v>942.3115884254127</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>2144.883770458459</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810562</v>
@@ -4585,7 +4585,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3045.010628407857</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2713.947741064286</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2361.179085794172</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>1987.713327533092</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>748.947811098467</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>748.947811098467</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>748.947811098467</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>601.0347175160739</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>454.1447700181635</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>286.4419333928824</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>969.7403902419971</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>969.7403902419971</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>748.947811098467</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3121.960685029207</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2769.192029759092</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2395.726271498012</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2005.586939522201</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.3980557622425</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343356</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.990851592604</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1101.990851592604</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>881.1982724490737</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.161572207407</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T16" t="n">
-        <v>2113.492509992416</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U16" t="n">
-        <v>1824.417283336614</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1616.073881198504</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5506,43 +5506,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,52 +5649,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.5010142286973</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>917.5010142286973</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5703,22 +5703,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>1099.149479058937</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,25 +5764,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6320,13 +6320,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>984.9192356072716</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C28" t="n">
-        <v>815.9830526793647</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D28" t="n">
-        <v>665.866413267029</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E28" t="n">
-        <v>517.9533196846359</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="F28" t="n">
-        <v>371.0633721867255</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>169.1087555692765</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>169.1087555692765</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X28" t="n">
         <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1355.182581213089</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.193030315072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2032.574130447511</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1743.498903791709</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1488.814415585822</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1199.397245548862</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>971.4076946508441</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,16 +7028,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7092,55 +7092,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038379</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797781</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2191.365421478097</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1902.290194822295</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1647.605706616408</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1358.188536579448</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="38">
@@ -7153,37 +7153,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7429,19 +7429,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7456,7 +7456,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="V13" t="n">
-        <v>125.1956044930016</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>114.1735436840659</v>
       </c>
       <c r="T16" t="n">
-        <v>134.6711151870884</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>12.10766347585297</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>10.85445046951673</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>35.11263957635606</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.726664722473913</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>208.7894017452186</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>54.56191943763307</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.5692538725983</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>145.3900508477874</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>32.1518465585626</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>185.1299285698839</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="O2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818173</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92183.89891818173</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.89891818172</v>
-      </c>
-      <c r="C4" t="n">
-        <v>92183.89891818176</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26447,7 +26447,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26456,7 +26456,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26524,46 +26524,46 @@
         <v>-933607.3020555621</v>
       </c>
       <c r="C6" t="n">
-        <v>395137.4436720307</v>
+        <v>395137.4436720303</v>
       </c>
       <c r="D6" t="n">
-        <v>395137.4436720302</v>
+        <v>395137.4436720306</v>
       </c>
       <c r="E6" t="n">
-        <v>145649.4289971617</v>
+        <v>145302.0497428047</v>
       </c>
       <c r="F6" t="n">
-        <v>471061.8908045168</v>
+        <v>470714.5115501595</v>
       </c>
       <c r="G6" t="n">
-        <v>471061.8908045168</v>
+        <v>470714.5115501597</v>
       </c>
       <c r="H6" t="n">
-        <v>471061.8908045168</v>
+        <v>470714.5115501598</v>
       </c>
       <c r="I6" t="n">
-        <v>471061.890804517</v>
+        <v>470714.51155016</v>
       </c>
       <c r="J6" t="n">
-        <v>253530.6884072393</v>
+        <v>253183.3091528822</v>
       </c>
       <c r="K6" t="n">
-        <v>471061.8908045169</v>
+        <v>470714.5115501596</v>
       </c>
       <c r="L6" t="n">
-        <v>471061.8908045169</v>
+        <v>470714.51155016</v>
       </c>
       <c r="M6" t="n">
-        <v>386006.8628690049</v>
+        <v>385659.4836146478</v>
       </c>
       <c r="N6" t="n">
-        <v>471061.890804517</v>
+        <v>470714.5115501597</v>
       </c>
       <c r="O6" t="n">
-        <v>471061.8908045169</v>
+        <v>470714.5115501597</v>
       </c>
       <c r="P6" t="n">
-        <v>471061.890804517</v>
+        <v>470714.5115501598</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>186.5668494326252</v>
+        <v>235.6797139073997</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.0265489714811</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>11.77875716132797</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>198.2808315333509</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>82.39369247777756</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>23.37691653306686</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194509</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>235.3313350441457</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>146.3697656619744</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992098</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30170,7 +30170,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,25 +31846,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>514.695376254093</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>372.0991318096486</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096386</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2133040.005997377</v>
+        <v>2134800.536300162</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>134.0513867710694</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.717223695296</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>134.6552054852412</v>
+        <v>134.6552054852417</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>166.9920602376567</v>
+        <v>166.9920602376553</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>72.89138480951669</v>
       </c>
       <c r="I7" t="n">
-        <v>13.02719212039627</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222606</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>133.6650819731295</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.67037196991754</v>
       </c>
       <c r="I10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>27.02919805176604</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>245.8640357413583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>66.85274231757869</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>75.75905456204299</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>206.5509998577715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>96.99837838564352</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>74.53917159609161</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>132.7328787290199</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>72.01539947950089</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>32.27552175740432</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>153.589961858651</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X2" t="n">
-        <v>3079.909711953368</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y2" t="n">
-        <v>2689.770379977556</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>760.6631235951729</v>
+        <v>760.6631235951734</v>
       </c>
       <c r="C4" t="n">
-        <v>760.6631235951729</v>
+        <v>760.6631235951734</v>
       </c>
       <c r="D4" t="n">
-        <v>760.6631235951729</v>
+        <v>760.6631235951734</v>
       </c>
       <c r="E4" t="n">
         <v>624.6477645191717</v>
@@ -4485,22 +4485,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>1391.093718466961</v>
       </c>
       <c r="W4" t="n">
-        <v>1391.09371846696</v>
+        <v>1391.093718466961</v>
       </c>
       <c r="X4" t="n">
         <v>1163.104167568943</v>
       </c>
       <c r="Y4" t="n">
-        <v>942.3115884254127</v>
+        <v>942.3115884254131</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458459</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>602.6456555615222</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>454.7325619791291</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>307.8426144812187</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339178</v>
+        <v>140.1397778559376</v>
       </c>
       <c r="H7" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>2065.110222835254</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1696.147705894842</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473105</v>
+        <v>1337.882007288092</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490663</v>
+        <v>952.0937546898474</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>541.1078499002399</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2451.710062899376</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533118</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="H10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -5001,13 +5001,13 @@
         <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
         <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X13" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y13" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5296,10 +5296,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.435061037252</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>2159.833596060193</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U16" t="n">
-        <v>1870.758369404391</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.073881198504</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1326.656711161544</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.667160263526</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,25 +5764,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,37 +6147,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770323</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491255</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367897</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E28" t="n">
-        <v>336.3048548543966</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>336.3048548543966</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>169.1087555692765</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>169.1087555692765</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072721</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,16 +6496,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,7 +6539,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6691,58 +6691,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038379</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797781</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.365421478097</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1902.290194822295</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.605706616408</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.188536579448</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,37 +7153,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811332</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2414.36154645157</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2125.286319795768</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1870.601831589881</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405028</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>40.32043864788582</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>114.1735436840659</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>176.378588761785</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>10.85445046951673</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>49.43558426092565</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.726664722473913</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>32.7912595632489</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.3900508477874</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>185.1299285698839</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752542</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.066132532898337e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.8989181818</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26432,7 +26432,7 @@
         <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26444,7 +26444,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-933607.3020555621</v>
+        <v>-933607.3020555624</v>
       </c>
       <c r="C6" t="n">
-        <v>395137.4436720303</v>
+        <v>395137.4436720307</v>
       </c>
       <c r="D6" t="n">
-        <v>395137.4436720306</v>
+        <v>395137.4436720301</v>
       </c>
       <c r="E6" t="n">
-        <v>145302.0497428047</v>
+        <v>145614.6910717255</v>
       </c>
       <c r="F6" t="n">
-        <v>470714.5115501595</v>
+        <v>471027.152879081</v>
       </c>
       <c r="G6" t="n">
-        <v>470714.5115501597</v>
+        <v>471027.1528790817</v>
       </c>
       <c r="H6" t="n">
-        <v>470714.5115501598</v>
+        <v>471027.1528790812</v>
       </c>
       <c r="I6" t="n">
-        <v>470714.51155016</v>
+        <v>471027.1528790813</v>
       </c>
       <c r="J6" t="n">
-        <v>253183.3091528822</v>
+        <v>253495.9504818034</v>
       </c>
       <c r="K6" t="n">
-        <v>470714.5115501596</v>
+        <v>471027.1528790811</v>
       </c>
       <c r="L6" t="n">
-        <v>470714.51155016</v>
+        <v>471027.1528790812</v>
       </c>
       <c r="M6" t="n">
-        <v>385659.4836146478</v>
+        <v>385972.1249435692</v>
       </c>
       <c r="N6" t="n">
-        <v>470714.5115501597</v>
+        <v>471027.1528790812</v>
       </c>
       <c r="O6" t="n">
-        <v>470714.5115501597</v>
+        <v>471027.152879081</v>
       </c>
       <c r="P6" t="n">
-        <v>470714.5115501598</v>
+        <v>471027.1528790811</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>235.6797139073997</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.5207149607576</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>11.77875716132797</v>
+        <v>11.77875716132752</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>198.2808315333509</v>
+        <v>198.2808315333523</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>71.86363010480409</v>
       </c>
       <c r="I7" t="n">
-        <v>83.32522828944182</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194509</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>277.2566436803239</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,10 +27912,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>73.08464294440324</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992098</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30170,7 +30170,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010494</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096386</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
